--- a/DATA/teste.xlsx
+++ b/DATA/teste.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">Barra</t>
   </si>
@@ -32,34 +32,34 @@
     <t xml:space="preserve">Para</t>
   </si>
   <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">R[ohm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X[ohm]</t>
   </si>
   <si>
     <t xml:space="preserve">Bsh</t>
   </si>
   <si>
+    <t xml:space="preserve">0.00038088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0019044</t>
+  </si>
+  <si>
     <t xml:space="preserve">Localizacao</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
+    <t xml:space="preserve">P[kw]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q[kvar]</t>
   </si>
   <si>
     <t xml:space="preserve">P_Gen</t>
   </si>
   <si>
     <t xml:space="preserve">Q_Gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teta</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -299,12 +299,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,11 +339,11 @@
       <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -370,19 +372,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,24 +394,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -425,16 +423,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>1</v>
+        <v>-40000</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
@@ -454,12 +446,6 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/DATA/teste.xlsx
+++ b/DATA/teste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DLIN" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,30 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Linha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R[ohm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X[ohm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00038088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0019044</t>
+  </si>
   <si>
     <t xml:space="preserve">Barra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R[ohm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X[ohm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00038088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0019044</t>
   </si>
   <si>
     <t xml:space="preserve">Localizacao</t>
@@ -298,8 +301,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,8 +377,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,7 +386,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
@@ -391,22 +395,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,10 +421,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>10000000</v>
@@ -440,13 +444,13 @@
         <v>-40000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/teste.xlsx
+++ b/DATA/teste.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>-40000</v>
+        <v>40000</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>14</v>
